--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_121__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_121__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,7 +5873,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>12.53346157073975</c:v>
+                  <c:v>12.53346252441406</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.32912445068359</c:v>
@@ -5882,7 +5882,7 @@
                   <c:v>20.15101051330566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.01143074035645</c:v>
+                  <c:v>15.01142978668213</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>32.16689682006836</c:v>
@@ -5894,10 +5894,10 @@
                   <c:v>22.3749828338623</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.01713943481445</c:v>
+                  <c:v>17.01713752746582</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.50683212280273</c:v>
+                  <c:v>16.50683403015137</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>15.25687885284424</c:v>
@@ -5924,7 +5924,7 @@
                   <c:v>20.31357955932617</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.89419937133789</c:v>
+                  <c:v>26.89419555664062</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14.09379100799561</c:v>
@@ -5942,16 +5942,16 @@
                   <c:v>18.56847763061523</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.43595123291016</c:v>
+                  <c:v>25.43594932556152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.74388217926025</c:v>
+                  <c:v>13.74388313293457</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>21.15653800964355</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.36387920379639</c:v>
+                  <c:v>15.36388111114502</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>15.89450740814209</c:v>
@@ -5981,13 +5981,13 @@
                   <c:v>18.38612747192383</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.25347328186035</c:v>
+                  <c:v>12.25347137451172</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>18.55113220214844</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.65999031066895</c:v>
+                  <c:v>14.65998840332031</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>26.49095916748047</c:v>
@@ -6005,13 +6005,13 @@
                   <c:v>19.55491256713867</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18.44793701171875</c:v>
+                  <c:v>18.44793891906738</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12.58350372314453</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.98344135284424</c:v>
+                  <c:v>14.98344230651855</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>18.59337997436523</c:v>
@@ -6029,16 +6029,16 @@
                   <c:v>14.45003604888916</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.95512962341309</c:v>
+                  <c:v>18.95512771606445</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.97966957092285</c:v>
+                  <c:v>14.97966766357422</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>16.84036064147949</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.00373458862305</c:v>
+                  <c:v>22.00373649597168</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>14.90872001647949</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>15.60135555267334</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.29550933837891</c:v>
+                  <c:v>18.29551124572754</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>16.06163597106934</c:v>
@@ -6059,25 +6059,25 @@
                   <c:v>22.98496246337891</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16.92665481567383</c:v>
+                  <c:v>16.92665672302246</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.04444885253906</c:v>
+                  <c:v>18.04444694519043</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.90288734436035</c:v>
+                  <c:v>13.90288639068604</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>16.55920791625977</c:v>
+                  <c:v>16.5592098236084</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>21.28938674926758</c:v>
+                  <c:v>21.28938484191895</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.55461025238037</c:v>
+                  <c:v>15.55461120605469</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>19.58197021484375</c:v>
+                  <c:v>19.58196830749512</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>17.25959205627441</c:v>
@@ -6086,7 +6086,7 @@
                   <c:v>19.89202308654785</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>24.73177528381348</c:v>
+                  <c:v>24.73177719116211</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>18.30515670776367</c:v>
@@ -6104,16 +6104,16 @@
                   <c:v>18.48014450073242</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.13275814056396</c:v>
+                  <c:v>13.1327600479126</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.43076419830322</c:v>
+                  <c:v>15.43076133728027</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>16.23589897155762</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.01118183135986</c:v>
+                  <c:v>15.01117992401123</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>19.57944297790527</c:v>
@@ -6125,10 +6125,10 @@
                   <c:v>16.05208396911621</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.99996852874756</c:v>
+                  <c:v>13.99996662139893</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18.00178909301758</c:v>
+                  <c:v>18.00179100036621</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>15.00631713867188</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>15.02407360076904</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.0795431137085</c:v>
+                  <c:v>14.07954406738281</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>25.01473045349121</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>15.26041507720947</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.92799282073975</c:v>
+                  <c:v>15.92799186706543</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14.62688636779785</c:v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>12.53346157073975</v>
+        <v>12.53346252441406</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.01143074035645</v>
+        <v>15.01142978668213</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.01713943481445</v>
+        <v>17.01713752746582</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.50683212280273</v>
+        <v>16.50683403015137</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>26.89419937133789</v>
+        <v>26.89419555664062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.43595123291016</v>
+        <v>25.43594932556152</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>13.74388217926025</v>
+        <v>13.74388313293457</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>15.36387920379639</v>
+        <v>15.36388111114502</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>12.25347328186035</v>
+        <v>12.25347137451172</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>14.65999031066895</v>
+        <v>14.65998840332031</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>18.44793701171875</v>
+        <v>18.44793891906738</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>14.98344135284424</v>
+        <v>14.98344230651855</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>18.95512962341309</v>
+        <v>18.95512771606445</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>14.97966957092285</v>
+        <v>14.97966766357422</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>22.00373458862305</v>
+        <v>22.00373649597168</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>18.29550933837891</v>
+        <v>18.29551124572754</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>16.92665481567383</v>
+        <v>16.92665672302246</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>18.04444885253906</v>
+        <v>18.04444694519043</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>13.90288734436035</v>
+        <v>13.90288639068604</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>16.55920791625977</v>
+        <v>16.5592098236084</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>21.28938674926758</v>
+        <v>21.28938484191895</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>15.55461025238037</v>
+        <v>15.55461120605469</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>19.58197021484375</v>
+        <v>19.58196830749512</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>24.73177528381348</v>
+        <v>24.73177719116211</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>13.13275814056396</v>
+        <v>13.1327600479126</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>15.43076419830322</v>
+        <v>15.43076133728027</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>15.01118183135986</v>
+        <v>15.01117992401123</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>13.99996852874756</v>
+        <v>13.99996662139893</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>18.00178909301758</v>
+        <v>18.00179100036621</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>14.0795431137085</v>
+        <v>14.07954406738281</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>15.92799282073975</v>
+        <v>15.92799186706543</v>
       </c>
     </row>
     <row r="96" spans="1:6">
